--- a/MODELAGENS/HROADS-modelagem-fisico.xlsx
+++ b/MODELAGENS/HROADS-modelagem-fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\SENAI-HROADS\SENAI-HROADS\MODELAGENS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE24448-B4A5-4707-AEAC-5A2FFF58BA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382DCC60-6608-4D6E-ADCF-95636DD8F5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{0315AE92-FA4F-4FA2-97E5-AE9A2EF1F049}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +132,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,13 +220,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,352 +581,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC91C2-E661-449D-9E37-4DF8FBC5A165}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>100</v>
+      </c>
+      <c r="D4" s="16">
+        <v>80</v>
+      </c>
+      <c r="E4" s="18">
+        <v>44418</v>
+      </c>
+      <c r="F4" s="19">
+        <v>43483</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16">
+        <v>70</v>
+      </c>
+      <c r="D5" s="16">
+        <v>100</v>
+      </c>
+      <c r="E5" s="18">
+        <v>44418</v>
+      </c>
+      <c r="F5" s="19">
+        <v>42446</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16">
+        <v>75</v>
+      </c>
+      <c r="D6" s="16">
+        <v>60</v>
+      </c>
+      <c r="E6" s="18">
+        <v>44418</v>
+      </c>
+      <c r="F6" s="19">
+        <v>43177</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="12">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="13">
+        <v>4</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="13">
+        <v>5</v>
+      </c>
+      <c r="E15" s="13">
+        <v>4</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="13">
+        <v>6</v>
+      </c>
+      <c r="E16" s="13">
+        <v>4</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13">
+        <v>7</v>
+      </c>
+      <c r="E17" s="13">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="F17" s="13">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="1">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="1">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-      <c r="E13" s="2">
-        <v>44418</v>
-      </c>
-      <c r="F13" s="3">
-        <v>43483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>70</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44418</v>
-      </c>
-      <c r="F14" s="3">
-        <v>42446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>75</v>
-      </c>
-      <c r="D15">
-        <v>60</v>
-      </c>
-      <c r="E15" s="2">
-        <v>44418</v>
-      </c>
-      <c r="F15" s="3">
-        <v>43177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>